--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_HAMPSHIRE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_HAMPSHIRE_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -532,7 +532,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C12">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C24">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C28">
@@ -791,7 +791,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C30">
@@ -804,7 +804,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C31">
@@ -817,7 +817,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C32">
@@ -843,7 +843,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C34">
@@ -882,7 +882,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C37">
@@ -957,7 +957,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C42">
@@ -1061,7 +1061,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C50">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C60">
@@ -1224,7 +1224,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C61">
@@ -1237,7 +1237,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C62">
@@ -1307,7 +1307,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C67">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C70">
@@ -1364,7 +1364,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C71">
@@ -1527,7 +1527,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C82">
@@ -1618,41 +1618,6 @@
       </c>
       <c r="D88">
         <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_HAMPSHIRE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_HAMPSHIRE_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Colima</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tlayacapan</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1362,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1375,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1388,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1419,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1450,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1481,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1512,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1525,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -1538,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1551,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1564,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1595,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
